--- a/Documents/RTM Sprint 2 Grp_2.xlsx
+++ b/Documents/RTM Sprint 2 Grp_2.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srinivas Pannuri\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A741B60-133F-4F06-8B79-4A1BF83DFC47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E55E85-30A6-49DE-81DA-0DB6CD483A65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2C700557-5FB4-4C92-A098-F197E2A1B6E4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="RTM" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -118,21 +118,6 @@
     <t>UT/VOTER/20,UT/STORING/21</t>
   </si>
   <si>
-    <t>IT/01,IT/02</t>
-  </si>
-  <si>
-    <t>IT/03 to IT/08</t>
-  </si>
-  <si>
-    <t>IT/09 to IT/11</t>
-  </si>
-  <si>
-    <t>IT/12 to IT/16</t>
-  </si>
-  <si>
-    <t>IT/17,IT/18</t>
-  </si>
-  <si>
     <t>SRS/10,SRS/11</t>
   </si>
   <si>
@@ -146,6 +131,21 @@
   </si>
   <si>
     <t>SRS/09,SRS/12</t>
+  </si>
+  <si>
+    <t>IT/03 to IT/14</t>
+  </si>
+  <si>
+    <t>IT/15,IT/16</t>
+  </si>
+  <si>
+    <t>IT/17 to IT/18</t>
+  </si>
+  <si>
+    <t>IT/01,IT/02,IT/19,IT/20</t>
+  </si>
+  <si>
+    <t>IT/21,IT/22</t>
   </si>
 </sst>
 </file>
@@ -563,7 +563,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -601,7 +601,7 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -613,7 +613,7 @@
         <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -621,7 +621,7 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -633,7 +633,7 @@
         <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -648,7 +648,7 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -660,7 +660,7 @@
         <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -668,7 +668,7 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -680,7 +680,7 @@
         <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -688,7 +688,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
@@ -700,7 +700,7 @@
         <v>24</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
